--- a/sales_report.xlsx
+++ b/sales_report.xlsx
@@ -22,13 +22,13 @@
     <t>From</t>
   </si>
   <si>
-    <t>2023-07-10</t>
+    <t>2023-07-12</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>2023-08-09</t>
+    <t>2023-08-11</t>
   </si>
   <si>
     <t>Total Orders</t>
